--- a/Trabajo_0/satellites.xlsx
+++ b/Trabajo_0/satellites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23822"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365.sharepoint.com/sites/GMAT762/Documentos compartidos/General/POTENCIA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="8_{C5A05C28-81FE-45CC-A332-BA90A69052D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{90E08EAC-FB7E-4148-B31B-2F192984659F}"/>
+  <xr:revisionPtr revIDLastSave="356" documentId="8_{C5A05C28-81FE-45CC-A332-BA90A69052D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CBE87665-9974-4345-B51D-0B6DA472FC2A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27240" yWindow="1560" windowWidth="21600" windowHeight="11835" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja4" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="mission" localSheetId="1">Sheet1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Sheet2!$124:$124</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="591">
   <si>
     <t>Name of Satellite, Alternate Names</t>
   </si>
@@ -133,54 +133,51 @@
     <t xml:space="preserve">Maroc Tubsat </t>
   </si>
   <si>
+    <t>http://www.vectronic-aerospace.com/html/body_maroc-tubsat.html</t>
+  </si>
+  <si>
+    <t>http://nssdc.gsfc.nasa.gov/spacewarn/spx578.html</t>
+  </si>
+  <si>
+    <t>http://www.ilr.tu-berlin.de/RFA/MAROC-TUBSAT/MAROC-TUBSAT.htm</t>
+  </si>
+  <si>
+    <t>http://www.vectronic-aerospace.com/html/maroc-tubsat.html</t>
+  </si>
+  <si>
+    <t>SDS-4 (Small Demonstration Satellite-4)</t>
+  </si>
+  <si>
+    <t>NiMH</t>
+  </si>
+  <si>
+    <t>GaAs</t>
+  </si>
+  <si>
+    <t>https://directory.eoportal.org/web/eoportal/satellite-missions/s/sds-4</t>
+  </si>
+  <si>
+    <t>http://www.zarya.info/Diaries/Launches/Launches.php?year=2012</t>
+  </si>
+  <si>
+    <t>UNIFORM 1  (UNiversity International FORmation Mission 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GaInP2/GaAs/Ge triple junction </t>
+  </si>
+  <si>
+    <t>https://eoportal.org/web/eoportal/satellite-missions/u/uniform-1</t>
+  </si>
+  <si>
+    <t>https://www.space.com/space-station-deploys-birds-3-cubesats-video.html</t>
+  </si>
+  <si>
+    <t>LAPAN-Tubsat (LAPAN A1)</t>
+  </si>
+  <si>
     <t>NiH2</t>
   </si>
   <si>
-    <t>Sicilic</t>
-  </si>
-  <si>
-    <t>http://www.vectronic-aerospace.com/html/body_maroc-tubsat.html</t>
-  </si>
-  <si>
-    <t>http://nssdc.gsfc.nasa.gov/spacewarn/spx578.html</t>
-  </si>
-  <si>
-    <t>http://www.ilr.tu-berlin.de/RFA/MAROC-TUBSAT/MAROC-TUBSAT.htm</t>
-  </si>
-  <si>
-    <t>http://www.vectronic-aerospace.com/html/maroc-tubsat.html</t>
-  </si>
-  <si>
-    <t>SDS-4 (Small Demonstration Satellite-4)</t>
-  </si>
-  <si>
-    <t>NiMH</t>
-  </si>
-  <si>
-    <t>GaAs</t>
-  </si>
-  <si>
-    <t>https://directory.eoportal.org/web/eoportal/satellite-missions/s/sds-4</t>
-  </si>
-  <si>
-    <t>http://www.zarya.info/Diaries/Launches/Launches.php?year=2012</t>
-  </si>
-  <si>
-    <t>UNIFORM 1  (UNiversity International FORmation Mission 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GaInP2/GaAs/Ge triple junction </t>
-  </si>
-  <si>
-    <t>https://eoportal.org/web/eoportal/satellite-missions/u/uniform-1</t>
-  </si>
-  <si>
-    <t>https://www.space.com/space-station-deploys-birds-3-cubesats-video.html</t>
-  </si>
-  <si>
-    <t>LAPAN-Tubsat (LAPAN A1)</t>
-  </si>
-  <si>
     <t>Silicium</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
     <t>Hodoyoshi-3</t>
   </si>
   <si>
+    <t>45 / 70</t>
+  </si>
+  <si>
     <t>GaInP2/GaGa/Ge</t>
   </si>
   <si>
@@ -223,12 +223,12 @@
     <t>Hodoyoshi-4</t>
   </si>
   <si>
+    <t>45 /70</t>
+  </si>
+  <si>
     <t>Bird 2 (Bispectral InfraRed Detector 2)</t>
   </si>
   <si>
-    <t>40 (avg) 120 (max)</t>
-  </si>
-  <si>
     <t>http://perso.wanadoo.fr/eurospace/espdatabase/index.html</t>
   </si>
   <si>
@@ -244,9 +244,6 @@
     <t>Proba 1 (Project for On-Board Autonomy)</t>
   </si>
   <si>
-    <t>40 to 120</t>
-  </si>
-  <si>
     <t xml:space="preserve">GaAs </t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>LAPAN A3</t>
   </si>
   <si>
-    <t>6,1 (lleva 3 pack de 4 cell)</t>
-  </si>
-  <si>
     <t>http://spaceflight101.com/pslv-c34/lapan-a3/</t>
   </si>
   <si>
@@ -298,10 +292,7 @@
     <t>TET-1 (Technologieerprobungsträger 1, Technology Experiment Carrier)</t>
   </si>
   <si>
-    <t>220 (peak)</t>
-  </si>
-  <si>
-    <t>14 (240)</t>
+    <t>20 / 160</t>
   </si>
   <si>
     <t xml:space="preserve">triple-junction GaAs </t>
@@ -1830,9 +1821,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1899,11 +1890,10 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1913,7 +1903,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1949,6 +1939,12 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5D6B5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1959,7 +1955,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1971,10 +1967,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2030,52 +2027,52 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="3" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="3" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2087,19 +2084,24 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="12" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Bueno" xfId="12" builtinId="26"/>
+  <cellStyles count="14">
+    <cellStyle name="Bueno" xfId="13" builtinId="26"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hyperlink 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Hyperlink 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -2114,6 +2116,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA5D6B5"/>
+      <color rgb="FF78C490"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2510,25 +2518,25 @@
   <dimension ref="A1:IV20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2599,7 +2607,7 @@
       <c r="IU1"/>
       <c r="IV1"/>
     </row>
-    <row r="2" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="50" t="s">
         <v>10</v>
       </c>
@@ -2653,7 +2661,7 @@
       <c r="IU2"/>
       <c r="IV2"/>
     </row>
-    <row r="3" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>15</v>
       </c>
@@ -2712,7 +2720,7 @@
       <c r="IU3"/>
       <c r="IV3"/>
     </row>
-    <row r="4" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="50" t="s">
         <v>21</v>
       </c>
@@ -2765,15 +2773,15 @@
       <c r="IU4"/>
       <c r="IV4"/>
     </row>
-    <row r="5" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="50" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="28">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="C5" s="28">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30">
@@ -2819,7 +2827,7 @@
       <c r="IU5"/>
       <c r="IV5"/>
     </row>
-    <row r="6" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="50" t="s">
         <v>29</v>
       </c>
@@ -2827,18 +2835,14 @@
         <v>47</v>
       </c>
       <c r="C6" s="25">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="8">
         <v>37235</v>
       </c>
@@ -2846,16 +2850,16 @@
         <v>3</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="N6" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="IB6"/>
       <c r="IC6"/>
@@ -2879,9 +2883,9 @@
       <c r="IU6"/>
       <c r="IV6"/>
     </row>
-    <row r="7" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="41">
         <v>48</v>
@@ -2894,10 +2898,10 @@
         <v>3.7</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" s="34">
         <v>41047</v>
@@ -2906,10 +2910,10 @@
         <v>2</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="IB7"/>
       <c r="IC7"/>
@@ -2933,9 +2937,9 @@
       <c r="IU7"/>
       <c r="IV7"/>
     </row>
-    <row r="8" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="41">
         <v>49</v>
@@ -2951,17 +2955,17 @@
         <v>11</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8" s="26">
         <v>41783</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L8" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="IB8"/>
       <c r="IC8"/>
@@ -2985,9 +2989,9 @@
       <c r="IU8"/>
       <c r="IV8"/>
     </row>
-    <row r="9" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="41">
         <v>55</v>
@@ -3000,10 +3004,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="26">
         <v>39092</v>
@@ -3012,13 +3016,13 @@
         <v>2</v>
       </c>
       <c r="J9" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="42" t="s">
+      <c r="M9" s="42" t="s">
         <v>48</v>
-      </c>
-      <c r="M9" s="42" t="s">
-        <v>49</v>
       </c>
       <c r="IB9"/>
       <c r="IC9"/>
@@ -3042,9 +3046,9 @@
       <c r="IU9"/>
       <c r="IV9"/>
     </row>
-    <row r="10" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="27">
         <v>56</v>
@@ -3052,7 +3056,7 @@
       <c r="C10" s="27">
         <v>130</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="31" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="31">
@@ -3099,7 +3103,7 @@
       <c r="IU10"/>
       <c r="IV10"/>
     </row>
-    <row r="11" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -3116,7 +3120,7 @@
         <v>5.5</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H11" s="26">
         <v>38822</v>
@@ -3158,7 +3162,7 @@
       <c r="IU11"/>
       <c r="IV11"/>
     </row>
-    <row r="12" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -3168,8 +3172,8 @@
       <c r="C12" s="27">
         <v>130</v>
       </c>
-      <c r="D12" s="31">
-        <v>50</v>
+      <c r="D12" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="E12" s="31">
         <v>5.8</v>
@@ -3215,22 +3219,22 @@
       <c r="IU12"/>
       <c r="IV12"/>
     </row>
-    <row r="13" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A13" s="50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="41">
         <v>94</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>61</v>
+      <c r="C13" s="44">
+        <v>120</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="41">
         <v>12</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H13" s="26">
         <v>37186</v>
@@ -3272,15 +3276,15 @@
       <c r="IU13"/>
       <c r="IV13"/>
     </row>
-    <row r="14" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A14" s="50" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="41">
         <v>94</v>
       </c>
-      <c r="C14" s="44" t="s">
-        <v>67</v>
+      <c r="C14" s="44">
+        <v>120</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="41">
@@ -3290,7 +3294,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" s="26">
         <v>37186</v>
@@ -3305,7 +3309,7 @@
         <v>63</v>
       </c>
       <c r="M14" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="IB14"/>
       <c r="IC14"/>
@@ -3329,25 +3333,23 @@
       <c r="IU14"/>
       <c r="IV14"/>
     </row>
-    <row r="15" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="41">
         <v>100</v>
       </c>
       <c r="C15" s="41">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D15" s="29"/>
-      <c r="E15" s="41">
-        <v>7</v>
-      </c>
+      <c r="E15" s="41"/>
       <c r="F15" s="45" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" s="26">
         <v>41304</v>
@@ -3356,13 +3358,13 @@
         <v>1</v>
       </c>
       <c r="J15" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="L15" s="42" t="s">
+      <c r="M15" s="42" t="s">
         <v>73</v>
-      </c>
-      <c r="M15" s="42" t="s">
-        <v>74</v>
       </c>
       <c r="IB15"/>
       <c r="IC15"/>
@@ -3386,9 +3388,9 @@
       <c r="IU15"/>
       <c r="IV15"/>
     </row>
-    <row r="16" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="38">
         <v>107</v>
@@ -3406,7 +3408,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="26">
         <v>40653</v>
@@ -3415,10 +3417,10 @@
         <v>3</v>
       </c>
       <c r="J16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="IB16"/>
       <c r="IC16"/>
@@ -3442,9 +3444,9 @@
       <c r="IU16"/>
       <c r="IV16"/>
     </row>
-    <row r="17" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>79</v>
+    <row r="17" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A17" s="51" t="s">
+        <v>78</v>
       </c>
       <c r="B17" s="28">
         <v>115</v>
@@ -3453,27 +3455,27 @@
         <v>37</v>
       </c>
       <c r="D17" s="29"/>
-      <c r="E17" s="27" t="s">
-        <v>80</v>
+      <c r="E17" s="27">
+        <v>17</v>
       </c>
       <c r="F17" s="47" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H17" s="34">
         <v>42543</v>
       </c>
       <c r="I17" s="33"/>
       <c r="J17" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="L17" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="IB17"/>
       <c r="IC17"/>
@@ -3497,27 +3499,27 @@
       <c r="IU17"/>
       <c r="IV17"/>
     </row>
-    <row r="18" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A18" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B18" s="28">
         <v>120</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="30">
-        <v>20</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>86</v>
+      <c r="C18" s="27">
+        <v>220</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="52">
+        <v>240</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H18" s="34">
         <v>41112</v>
@@ -3525,17 +3527,17 @@
       <c r="I18" s="35">
         <v>1</v>
       </c>
-      <c r="J18" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>90</v>
+      <c r="J18" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="49" t="s">
+        <v>87</v>
       </c>
       <c r="IB18"/>
       <c r="IC18"/>
@@ -3559,9 +3561,9 @@
       <c r="IU18"/>
       <c r="IV18"/>
     </row>
-    <row r="19" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A19" s="50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B19" s="28">
         <v>130</v>
@@ -3570,16 +3572,16 @@
         <v>120</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H19" s="34">
         <v>40119</v>
@@ -3588,10 +3590,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="IB19"/>
       <c r="IC19"/>
@@ -3615,14 +3617,16 @@
       <c r="IU19"/>
       <c r="IV19"/>
     </row>
-    <row r="20" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:256" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A20" s="50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B20" s="32">
         <v>134</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="25">
+        <v>40.32</v>
+      </c>
       <c r="D20" s="30">
         <v>40</v>
       </c>
@@ -3633,7 +3637,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20" s="34">
         <v>39130</v>
@@ -3642,16 +3646,16 @@
         <v>2</v>
       </c>
       <c r="J20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N20" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="IB20"/>
       <c r="IC20"/>
@@ -3729,7 +3733,7 @@
       <selection pane="bottomLeft" activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="93.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="7" customWidth="1"/>
@@ -3749,7 +3753,7 @@
     <col min="45" max="232" width="9.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3757,10 +3761,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>7</v>
@@ -3790,9 +3794,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" s="7">
         <v>10</v>
@@ -3802,15 +3806,15 @@
         <v>44155</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B3" s="7">
         <v>10.9</v>
@@ -3823,21 +3827,21 @@
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="B4" s="7">
         <v>11</v>
@@ -3848,15 +3852,15 @@
         <v>42266</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="12.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" s="7">
         <v>11</v>
@@ -3869,12 +3873,12 @@
         <v>5</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B6" s="7">
         <v>11</v>
@@ -3886,18 +3890,18 @@
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="B7" s="7">
         <v>12</v>
@@ -3909,18 +3913,18 @@
         <v>38167</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B8" s="7">
         <v>12</v>
@@ -3932,18 +3936,18 @@
         <v>38167</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="B9" s="7">
         <v>12</v>
@@ -3952,21 +3956,21 @@
         <v>38167</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B10" s="7">
         <v>12</v>
@@ -3975,21 +3979,21 @@
         <v>38167</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="B11" s="7">
         <v>12</v>
@@ -3998,12 +4002,12 @@
         <v>39189</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="12.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B12" s="7">
         <v>12</v>
@@ -4012,12 +4016,12 @@
         <v>39189</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="12.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
@@ -4026,12 +4030,12 @@
         <v>39189</v>
       </c>
       <c r="G13" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="B14" s="7">
         <v>12</v>
@@ -4040,12 +4044,12 @@
         <v>39189</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B15" s="7">
         <v>12</v>
@@ -4054,12 +4058,12 @@
         <v>39189</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B16" s="7">
         <v>12</v>
@@ -4072,15 +4076,15 @@
         <v>40023</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:256" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B17" s="7">
         <v>12</v>
@@ -4093,15 +4097,15 @@
         <v>40023</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="B18" s="7">
         <v>12</v>
@@ -4114,18 +4118,18 @@
         <v>40772</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="B19" s="7">
         <v>12</v>
@@ -4138,15 +4142,15 @@
         <v>40772</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:256" ht="12.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B20" s="7">
         <v>12</v>
@@ -4159,15 +4163,15 @@
         <v>41599</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:256" ht="12.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B21" s="7">
         <v>12</v>
@@ -4180,12 +4184,12 @@
         <v>41599</v>
       </c>
       <c r="G21" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="B22" s="7">
         <v>12</v>
@@ -4198,9 +4202,9 @@
         <v>41809</v>
       </c>
     </row>
-    <row r="23" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:256" ht="12.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B23" s="7">
         <v>12</v>
@@ -4213,15 +4217,15 @@
         <v>41809</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:256" ht="12.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B24" s="7">
         <v>12</v>
@@ -4230,12 +4234,12 @@
         <v>42266</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:256" ht="12.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B25" s="7">
         <v>12</v>
@@ -4244,12 +4248,12 @@
         <v>42266</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:256" ht="12.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B26" s="7">
         <v>12</v>
@@ -4261,12 +4265,12 @@
         <v>1</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:256" ht="12.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B27" s="7">
         <v>12</v>
@@ -4275,12 +4279,12 @@
         <v>43999</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:256" ht="12.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B28" s="7">
         <v>12</v>
@@ -4290,15 +4294,15 @@
         <v>44102</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:256" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:256" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B29" s="7">
         <v>13</v>
@@ -4310,11 +4314,11 @@
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -4351,9 +4355,9 @@
       <c r="IU29"/>
       <c r="IV29"/>
     </row>
-    <row r="30" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:256" ht="12.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B30" s="7">
         <v>14</v>
@@ -4368,10 +4372,10 @@
         <v>41330</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
@@ -4379,9 +4383,9 @@
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
     </row>
-    <row r="31" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:256" ht="12.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B31" s="7">
         <v>14</v>
@@ -4391,15 +4395,15 @@
         <v>41820</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:256" ht="12.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B32" s="7">
         <v>15</v>
@@ -4409,13 +4413,13 @@
         <v>41820</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="12.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B33" s="7">
         <v>15</v>
@@ -4425,13 +4429,13 @@
         <v>41820</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B34" s="7">
         <v>15</v>
@@ -4441,18 +4445,18 @@
         <v>42543</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="12.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B35" s="7">
         <v>15</v>
@@ -4462,13 +4466,13 @@
         <v>42639</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B36" s="7">
         <v>15</v>
@@ -4481,16 +4485,16 @@
         <v>2</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="12.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B37" s="7">
         <v>15</v>
@@ -4500,21 +4504,21 @@
         <v>43437</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="12.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B38" s="7">
         <v>15</v>
@@ -4524,21 +4528,21 @@
         <v>43437</v>
       </c>
       <c r="G38" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="B39" s="7">
         <v>15</v>
@@ -4548,21 +4552,21 @@
         <v>43437</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I39" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="B40" s="7">
         <v>15</v>
@@ -4572,15 +4576,15 @@
         <v>44076</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="12.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B41" s="7">
         <v>16</v>
@@ -4590,15 +4594,15 @@
         <v>42909</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="12.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B42" s="7">
         <v>16</v>
@@ -4614,9 +4618,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="12.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B43" s="7">
         <v>16</v>
@@ -4626,15 +4630,15 @@
         <v>43720</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="12.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B44" s="7">
         <v>17.5</v>
@@ -4644,12 +4648,12 @@
         <v>43651</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="12.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B45" s="7">
         <v>18</v>
@@ -4662,15 +4666,15 @@
         <v>2</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="12.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B46" s="7">
         <v>18</v>
@@ -4679,13 +4683,13 @@
         <v>43817</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="12.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
@@ -4713,7 +4717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="12.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -4735,9 +4739,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="12.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B49" s="7">
         <v>20</v>
@@ -4747,15 +4751,15 @@
         <v>42266</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="12.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B50" s="7">
         <v>20</v>
@@ -4765,15 +4769,15 @@
         <v>42266</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J50" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="12.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B51" s="7">
         <v>20</v>
@@ -4783,21 +4787,21 @@
         <v>43437</v>
       </c>
       <c r="G51" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="B52" s="7">
         <v>20</v>
@@ -4808,15 +4812,15 @@
         <v>43651</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="12.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B53" s="7">
         <v>20</v>
@@ -4826,15 +4830,15 @@
         <v>43685</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="12.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B54" s="7">
         <v>20</v>
@@ -4844,15 +4848,15 @@
         <v>43755</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="12.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B55" s="7">
         <v>20</v>
@@ -4861,12 +4865,12 @@
         <v>44187</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="12.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B56" s="12">
         <v>22</v>
@@ -4880,10 +4884,10 @@
         <v>0.5</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -4891,9 +4895,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="12.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B57" s="7">
         <v>23</v>
@@ -4906,16 +4910,16 @@
         <v>1</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H57" s="15"/>
       <c r="I57" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="12.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B58" s="7">
         <v>25</v>
@@ -4928,15 +4932,15 @@
         <v>1</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="12.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B59" s="7">
         <v>25</v>
@@ -4946,15 +4950,15 @@
         <v>41809</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="12.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B60" s="7">
         <v>25</v>
@@ -4963,15 +4967,15 @@
         <v>42266</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="12.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B61" s="7">
         <v>25</v>
@@ -4981,15 +4985,15 @@
         <v>43397</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="12.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B62" s="7">
         <v>25</v>
@@ -4998,18 +5002,18 @@
         <v>43437</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="12.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B63" s="7">
         <v>27</v>
@@ -5019,18 +5023,18 @@
         <v>41828</v>
       </c>
       <c r="G63" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A64" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="B64" s="7">
         <v>27</v>
@@ -5040,15 +5044,15 @@
         <v>43423</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="12.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B65" s="7">
         <v>29</v>
@@ -5058,18 +5062,18 @@
         <v>42719</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J65" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="12.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B66" s="7">
         <v>29</v>
@@ -5079,18 +5083,18 @@
         <v>42719</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J66" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="12.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B67" s="7">
         <v>29</v>
@@ -5100,18 +5104,18 @@
         <v>42719</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="12.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B68" s="7">
         <v>29</v>
@@ -5121,18 +5125,18 @@
         <v>42719</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="12.75" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B69" s="7">
         <v>29</v>
@@ -5142,18 +5146,18 @@
         <v>42719</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J69" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="12.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B70" s="7">
         <v>29</v>
@@ -5163,18 +5167,18 @@
         <v>42719</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J70" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="12.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B71" s="7">
         <v>29</v>
@@ -5184,18 +5188,18 @@
         <v>42719</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J71" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="12.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B72" s="7">
         <v>29</v>
@@ -5205,16 +5209,16 @@
         <v>42719</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J72" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="12.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
@@ -5234,9 +5238,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="12.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B74" s="7">
         <v>30</v>
@@ -5246,18 +5250,18 @@
         <v>44073</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="12.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B75" s="7">
         <v>35</v>
@@ -5269,21 +5273,21 @@
         <v>38167</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="12.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B76" s="7">
         <v>35</v>
@@ -5293,15 +5297,15 @@
         <v>42519</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="12.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B77" s="7">
         <v>35</v>
@@ -5311,15 +5315,15 @@
         <v>42519</v>
       </c>
       <c r="G77" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I77" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="I77" s="18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:11" ht="12.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B78" s="7">
         <v>35</v>
@@ -5329,15 +5333,15 @@
         <v>42901</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I78" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="12.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B79" s="7">
         <v>35</v>
@@ -5347,13 +5351,13 @@
         <v>43133</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I79" s="18"/>
     </row>
-    <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="12.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B80" s="7">
         <v>35</v>
@@ -5363,13 +5367,13 @@
         <v>43133</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I80" s="18"/>
     </row>
-    <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="12.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B81" s="7">
         <v>35</v>
@@ -5379,16 +5383,16 @@
         <v>44076</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I81" s="18"/>
     </row>
-    <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="12.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B82" s="7">
         <v>36</v>
@@ -5401,16 +5405,16 @@
         <v>2</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="12.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B83" s="7">
         <v>37</v>
@@ -5420,22 +5424,22 @@
         <v>43437</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H83" s="13"/>
       <c r="I83" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="12.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B84" s="7">
         <v>40</v>
@@ -5448,15 +5452,15 @@
         <v>3</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="12.75" customHeight="1">
       <c r="A85" s="17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B85" s="7">
         <v>40</v>
@@ -5466,15 +5470,15 @@
         <v>44088</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="12.75" customHeight="1">
       <c r="A86" s="17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B86" s="7">
         <v>40</v>
@@ -5484,15 +5488,15 @@
         <v>44088</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="12.75" customHeight="1">
       <c r="A87" s="17" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B87" s="7">
         <v>40</v>
@@ -5502,15 +5506,15 @@
         <v>44088</v>
       </c>
       <c r="G87" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A88" s="17" t="s">
         <v>272</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
-        <v>275</v>
       </c>
       <c r="B88" s="7">
         <v>40</v>
@@ -5520,15 +5524,15 @@
         <v>44088</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="12.75" customHeight="1">
       <c r="A89" s="17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B89" s="7">
         <v>40</v>
@@ -5538,15 +5542,15 @@
         <v>44088</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="12.75" customHeight="1">
       <c r="A90" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B90" s="7">
         <v>40</v>
@@ -5556,15 +5560,15 @@
         <v>44088</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="12.75" customHeight="1">
       <c r="A91" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B91" s="7">
         <v>40</v>
@@ -5574,15 +5578,15 @@
         <v>44088</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="12.75" customHeight="1">
       <c r="A92" s="17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B92" s="7">
         <v>40</v>
@@ -5592,15 +5596,15 @@
         <v>44088</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="12.75" customHeight="1">
       <c r="A93" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B93" s="7">
         <v>40</v>
@@ -5610,13 +5614,13 @@
         <v>44088</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="12.75" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>23</v>
       </c>
@@ -5636,9 +5640,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="12.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B95" s="7">
         <v>42</v>
@@ -5648,15 +5652,15 @@
         <v>43621</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="12.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B96" s="7">
         <v>43</v>
@@ -5666,15 +5670,15 @@
         <v>42930</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="12.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B97" s="7">
         <v>44</v>
@@ -5687,15 +5691,15 @@
         <v>3</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="12.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B98" s="7">
         <v>45</v>
@@ -5704,15 +5708,15 @@
         <v>39591</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="12.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B99" s="7">
         <v>45</v>
@@ -5725,15 +5729,15 @@
         <v>3</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="12.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B100" s="7">
         <v>45</v>
@@ -5743,15 +5747,15 @@
         <v>43423</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="12.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B101" s="7">
         <v>45</v>
@@ -5761,22 +5765,22 @@
         <v>43437</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H101" s="15"/>
       <c r="I101" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="12.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B102" s="7">
         <v>45</v>
@@ -5786,12 +5790,12 @@
         <v>43806</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="12.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B103" s="7">
         <v>45</v>
@@ -5801,12 +5805,12 @@
         <v>43806</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="12.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B104" s="7">
         <v>45</v>
@@ -5816,13 +5820,13 @@
         <v>43845</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I104" s="18"/>
     </row>
-    <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="12.75" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B105" s="7">
         <v>45</v>
@@ -5832,13 +5836,13 @@
         <v>43845</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I105" s="18"/>
     </row>
-    <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="12.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B106" s="7">
         <v>45</v>
@@ -5848,15 +5852,15 @@
         <v>43982</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="12.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B107" s="7">
         <v>45</v>
@@ -5866,12 +5870,12 @@
         <v>43999</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="12.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B108" s="7">
         <v>45</v>
@@ -5881,16 +5885,16 @@
         <v>44141</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I108" s="18"/>
     </row>
-    <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="12.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B109" s="7">
         <v>45</v>
@@ -5900,16 +5904,16 @@
         <v>44141</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I109" s="18"/>
     </row>
-    <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="12.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B110" s="7">
         <v>45</v>
@@ -5919,16 +5923,16 @@
         <v>44141</v>
       </c>
       <c r="G110" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I110" s="18"/>
+    </row>
+    <row r="111" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A111" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I110" s="18"/>
-    </row>
-    <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="B111" s="7">
         <v>45</v>
@@ -5938,16 +5942,16 @@
         <v>44141</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I111" s="18"/>
     </row>
-    <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="12.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B112" s="7">
         <v>45</v>
@@ -5957,16 +5961,16 @@
         <v>44141</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I112" s="18"/>
     </row>
-    <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="12.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B113" s="7">
         <v>45</v>
@@ -5976,16 +5980,16 @@
         <v>44141</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I113" s="18"/>
     </row>
-    <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="12.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B114" s="7">
         <v>45</v>
@@ -5995,16 +5999,16 @@
         <v>44141</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I114" s="18"/>
     </row>
-    <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="12.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B115" s="7">
         <v>45</v>
@@ -6014,16 +6018,16 @@
         <v>44141</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I115" s="18"/>
     </row>
-    <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="12.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B116" s="7">
         <v>45</v>
@@ -6033,16 +6037,16 @@
         <v>44141</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I116" s="18"/>
     </row>
-    <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="12.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B117" s="7">
         <v>45</v>
@@ -6052,16 +6056,16 @@
         <v>44141</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I117" s="18"/>
     </row>
-    <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="12.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B118" s="7">
         <v>46</v>
@@ -6072,13 +6076,13 @@
         <v>39150</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="12.75" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>29</v>
       </c>
@@ -6095,21 +6099,21 @@
         <v>3</v>
       </c>
       <c r="G119" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I119" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J119" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I119" s="11" t="s">
+      <c r="K119" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J119" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K119" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:11" ht="12.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B120" s="7">
         <v>48</v>
@@ -6121,15 +6125,15 @@
         <v>41783</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="12.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B121" s="7">
         <v>49</v>
@@ -6139,16 +6143,16 @@
         <v>41949</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H121" s="20"/>
       <c r="I121" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="12.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B122" s="7">
         <v>49</v>
@@ -6158,13 +6162,13 @@
         <v>41949</v>
       </c>
       <c r="G122" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="H122" s="20"/>
+    </row>
+    <row r="123" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A123" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="H122" s="20"/>
-    </row>
-    <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="B123" s="7">
         <v>50</v>
@@ -6174,12 +6178,12 @@
         <v>39836</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="12.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B124" s="7">
         <v>50</v>
@@ -6197,15 +6201,15 @@
         <v>2</v>
       </c>
       <c r="G124" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A125" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I124" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B125" s="7">
         <v>50</v>
@@ -6217,15 +6221,15 @@
         <v>41783</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="12.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B126" s="7">
         <v>50</v>
@@ -6235,16 +6239,16 @@
         <v>41949</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H126" s="20"/>
       <c r="I126" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="12.75" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B127" s="7">
         <v>50</v>
@@ -6254,16 +6258,16 @@
         <v>42417</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H127" s="20"/>
       <c r="I127" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="12.75" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B128" s="7">
         <v>50</v>
@@ -6273,16 +6277,16 @@
         <v>42417</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H128" s="20"/>
       <c r="I128" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="12.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B129" s="7">
         <v>50</v>
@@ -6292,13 +6296,13 @@
         <v>42487</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H129" s="15"/>
     </row>
-    <row r="130" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="12.75" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B130" s="7">
         <v>50</v>
@@ -6308,15 +6312,15 @@
         <v>42725</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I130" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="12.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B131" s="7">
         <v>50</v>
@@ -6327,15 +6331,15 @@
         <v>42725</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I131" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="12.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B132" s="7">
         <v>50</v>
@@ -6346,15 +6350,15 @@
         <v>42725</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I132" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="12.75" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B133" s="7">
         <v>50</v>
@@ -6364,15 +6368,15 @@
         <v>43032</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="12.75" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B134" s="7">
         <v>50</v>
@@ -6382,18 +6386,18 @@
         <v>43437</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="12.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B135" s="7">
         <v>50</v>
@@ -6403,18 +6407,18 @@
         <v>43772</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="12.75" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B136" s="7">
         <v>50</v>
@@ -6424,15 +6428,15 @@
         <v>43772</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I136" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="12.75" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B137" s="7">
         <v>50</v>
@@ -6443,15 +6447,15 @@
         <v>44037</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="12.75" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B138" s="7">
         <v>50</v>
@@ -6461,18 +6465,18 @@
         <v>44142</v>
       </c>
       <c r="G138" s="16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H138" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="12.75" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B139" s="7">
         <v>50.5</v>
@@ -6482,16 +6486,16 @@
         <v>43483</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H139" s="15"/>
       <c r="I139" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="12.75" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B140" s="7">
         <v>53</v>
@@ -6509,18 +6513,18 @@
         <v>1</v>
       </c>
       <c r="G140" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A141" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="I140" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="J140" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="B141" s="7">
         <v>53</v>
@@ -6533,15 +6537,15 @@
         <v>3</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="12.75" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B142" s="7">
         <v>55</v>
@@ -6550,15 +6554,15 @@
         <v>40502</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="12.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B143" s="7">
         <v>55</v>
@@ -6568,19 +6572,19 @@
         <v>42284</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H143" s="20"/>
       <c r="I143" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="12.75" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B144" s="7">
         <v>55</v>
@@ -6589,15 +6593,15 @@
         <v>42901</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="12.75" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B145" s="7">
         <v>55</v>
@@ -6606,15 +6610,15 @@
         <v>42901</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="12.75" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B146" s="7">
         <v>55</v>
@@ -6623,15 +6627,15 @@
         <v>43216</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="12.75" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B147" s="7">
         <v>55</v>
@@ -6641,18 +6645,18 @@
         <v>43437</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="12.75" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B148" s="7">
         <v>55</v>
@@ -6661,12 +6665,12 @@
         <v>43727</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="12.75" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B149" s="7">
         <v>55</v>
@@ -6675,12 +6679,12 @@
         <v>43727</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="12.75" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B150" s="7">
         <v>55</v>
@@ -6689,12 +6693,12 @@
         <v>43727</v>
       </c>
       <c r="G150" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A151" s="1" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="B151" s="7">
         <v>55</v>
@@ -6703,12 +6707,12 @@
         <v>43727</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="12.75" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B152" s="7">
         <v>55</v>
@@ -6717,15 +6721,15 @@
         <v>43727</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="12.75" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B153" s="7">
         <v>56</v>
@@ -6738,13 +6742,13 @@
         <v>1</v>
       </c>
       <c r="G153" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H153" s="15"/>
     </row>
-    <row r="154" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="12.75" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B154" s="7">
         <v>56</v>
@@ -6754,12 +6758,12 @@
         <v>43433</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="12.75" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B155" s="7">
         <v>56</v>
@@ -6769,15 +6773,15 @@
         <v>43645</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="12.75" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B156" s="7">
         <v>56</v>
@@ -6787,15 +6791,15 @@
         <v>43696</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="12.75" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B157" s="7">
         <v>56</v>
@@ -6805,12 +6809,12 @@
         <v>44050</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="12.75" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B158" s="7">
         <v>56</v>
@@ -6820,12 +6824,12 @@
         <v>44050</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="12.75" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B159" s="7">
         <v>59</v>
@@ -6835,15 +6839,15 @@
         <v>43483</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="12.75" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B160" s="7">
         <v>60</v>
@@ -6856,18 +6860,18 @@
         <v>39092</v>
       </c>
       <c r="G160" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I160" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I160" s="6" t="s">
+      <c r="J160" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J160" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:11" ht="12.75" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B161" s="7">
         <v>60</v>
@@ -6876,21 +6880,21 @@
         <v>40162</v>
       </c>
       <c r="G161" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="J161" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="K161" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="I161" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="J161" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="K161" s="6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:11" ht="12.75" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B162" s="7">
         <v>60</v>
@@ -6909,7 +6913,7 @@
       </c>
       <c r="J162" s="13"/>
     </row>
-    <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" ht="12.75" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>59</v>
       </c>
@@ -6930,9 +6934,9 @@
       </c>
       <c r="J163" s="13"/>
     </row>
-    <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="12.75" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B164" s="7">
         <v>60</v>
@@ -6941,15 +6945,15 @@
         <v>44076</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="12.75" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B165" s="7">
         <v>64</v>
@@ -6958,15 +6962,15 @@
         <v>37891</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="12.75" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B166" s="7">
         <v>65</v>
@@ -6978,16 +6982,16 @@
         <v>41949</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I166" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J166" s="13"/>
     </row>
-    <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="12.75" customHeight="1">
       <c r="A167" s="17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B167" s="7">
         <v>65</v>
@@ -6997,15 +7001,15 @@
         <v>43694</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="12.75" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B168" s="7">
         <v>65</v>
@@ -7015,15 +7019,15 @@
         <v>44076</v>
       </c>
       <c r="G168" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H168" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="12.75" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B169" s="7">
         <v>67</v>
@@ -7033,12 +7037,12 @@
         <v>41890</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="12.75" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B170" s="7">
         <v>68</v>
@@ -7051,15 +7055,15 @@
         <v>42271</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I170" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="12.75" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B171" s="7">
         <v>70</v>
@@ -7069,16 +7073,16 @@
         <v>38587</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="12.75" customHeight="1">
       <c r="A172" s="1" t="s">
         <v>54</v>
       </c>
@@ -7107,9 +7111,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" ht="12.75" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B173" s="7">
         <v>70</v>
@@ -7136,9 +7140,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" ht="12.75" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B174" s="7">
         <v>70</v>
@@ -7165,9 +7169,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" ht="12.75" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B175" s="7">
         <v>70</v>
@@ -7194,9 +7198,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" ht="12.75" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B176" s="7">
         <v>70</v>
@@ -7223,9 +7227,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="177" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:256" ht="12.75" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B177" s="7">
         <v>70</v>
@@ -7235,18 +7239,18 @@
         <v>43641</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="178" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="178" spans="1:256" ht="12.75" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B178" s="7">
         <v>70</v>
@@ -7259,18 +7263,18 @@
         <v>0.25</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="179" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="179" spans="1:256" ht="12.75" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B179" s="7">
         <v>70</v>
@@ -7280,15 +7284,15 @@
         <v>43819</v>
       </c>
       <c r="G179" s="16" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H179" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="180" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="180" spans="1:256" ht="12.75" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B180" s="7">
         <v>74</v>
@@ -7298,15 +7302,15 @@
         <v>41330</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="181" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="181" spans="1:256" ht="12.75" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B181" s="7">
         <v>75</v>
@@ -7316,15 +7320,15 @@
         <v>43805</v>
       </c>
       <c r="G181" s="16" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H181" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="182" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="182" spans="1:256" ht="12.75" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B182" s="7">
         <v>78</v>
@@ -7334,15 +7338,15 @@
         <v>42354</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="183" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="183" spans="1:256" ht="12.75" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B183" s="7">
         <v>78.5</v>
@@ -7352,12 +7356,12 @@
         <v>44066</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="184" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="184" spans="1:256" ht="12.75" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B184" s="7">
         <v>80</v>
@@ -7366,18 +7370,18 @@
         <v>43437</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="185" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="185" spans="1:256" ht="12.75" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B185" s="7">
         <v>80</v>
@@ -7386,15 +7390,15 @@
         <v>43651</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="186" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="186" spans="1:256" ht="12.75" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B186" s="7">
         <v>80</v>
@@ -7403,15 +7407,15 @@
         <v>43651</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="187" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="187" spans="1:256" ht="12.75" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B187" s="7">
         <v>80</v>
@@ -7420,12 +7424,12 @@
         <v>44102</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="188" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="188" spans="1:256" ht="12.75" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B188" s="7">
         <v>80</v>
@@ -7434,12 +7438,12 @@
         <v>44102</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="189" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="189" spans="1:256" ht="12.75" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B189" s="7">
         <v>85</v>
@@ -7449,18 +7453,18 @@
         <v>42543</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I189" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="190" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="190" spans="1:256" ht="12.75" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B190" s="7">
         <v>85</v>
@@ -7470,13 +7474,13 @@
         <v>43641</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="HX190" s="1"/>
       <c r="HY190" s="1"/>
@@ -7504,9 +7508,9 @@
       <c r="IU190" s="1"/>
       <c r="IV190" s="1"/>
     </row>
-    <row r="191" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:256" ht="12.75" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B191" s="7">
         <v>90</v>
@@ -7519,15 +7523,15 @@
         <v>5</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="192" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="192" spans="1:256" ht="12.75" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B192" s="7">
         <v>90</v>
@@ -7536,18 +7540,18 @@
         <v>41828</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="193" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="193" spans="1:256" ht="12.75" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B193" s="7">
         <v>90</v>
@@ -7556,15 +7560,15 @@
         <v>43216</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="194" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="194" spans="1:256" ht="12.75" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B194" s="7">
         <v>90</v>
@@ -7573,15 +7577,15 @@
         <v>43216</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="195" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="195" spans="1:256" ht="12.75" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B195" s="7">
         <v>90</v>
@@ -7590,12 +7594,12 @@
         <v>43216</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="196" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="196" spans="1:256" ht="12.75" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B196" s="7">
         <v>90</v>
@@ -7604,15 +7608,15 @@
         <v>43216</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="197" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="197" spans="1:256" ht="12.75" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B197" s="7">
         <v>91</v>
@@ -7627,15 +7631,15 @@
         <v>3</v>
       </c>
       <c r="G197" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I197" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I197" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="198" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:256" ht="12.75" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B198" s="7">
         <v>91</v>
@@ -7645,13 +7649,13 @@
         <v>42195</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I198" s="20"/>
     </row>
-    <row r="199" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:256" ht="12.75" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B199" s="7">
         <v>92</v>
@@ -7681,9 +7685,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="200" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:256" ht="12.75" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B200" s="7">
         <v>92</v>
@@ -7695,12 +7699,12 @@
         <v>2</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="201" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="201" spans="1:256" ht="12.75" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B201" s="7">
         <v>93</v>
@@ -7710,18 +7714,18 @@
         <v>39923</v>
       </c>
       <c r="G201" s="11" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I201" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="202" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="202" spans="1:256" ht="12.75" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B202" s="7">
         <v>93</v>
@@ -7736,18 +7740,18 @@
         <v>2</v>
       </c>
       <c r="G202" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I202" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I202" s="6" t="s">
+      <c r="J202" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J202" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="203" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:256" ht="12.75" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B203" s="7">
         <v>93</v>
@@ -7757,18 +7761,18 @@
         <v>43962</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H203" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="I203" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="204" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="204" spans="1:256" ht="12.75" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B204" s="7">
         <v>93</v>
@@ -7778,18 +7782,18 @@
         <v>43962</v>
       </c>
       <c r="G204" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="H204" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="I204" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="205" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A205" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="H204" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="I204" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="205" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="B205" s="7">
         <v>95</v>
@@ -7800,13 +7804,13 @@
         <v>42284</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I205" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J205" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="HX205" s="1"/>
       <c r="HY205" s="1"/>
@@ -7834,9 +7838,9 @@
       <c r="IU205" s="1"/>
       <c r="IV205" s="1"/>
     </row>
-    <row r="206" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:256" ht="12.75" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B206" s="7">
         <v>95</v>
@@ -7847,18 +7851,18 @@
         <v>42284</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I206" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="207" spans="1:256" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="207" spans="1:256" ht="11.25" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B207" s="7">
         <v>95</v>
@@ -7871,15 +7875,15 @@
         <v>3</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I207" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="208" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="208" spans="1:256" ht="12.75" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B208" s="7">
         <v>95</v>
@@ -7892,15 +7896,15 @@
         <v>3</v>
       </c>
       <c r="G208" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="I208" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A209" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="I208" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="B209" s="7">
         <v>95</v>
@@ -7913,15 +7917,15 @@
         <v>3</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I209" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A210" s="1" t="s">
         <v>472</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="B210" s="7">
         <v>95</v>
@@ -7934,12 +7938,12 @@
         <v>3</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="12.75" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B211" s="7">
         <v>95</v>
@@ -7952,12 +7956,12 @@
         <v>3</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="12.75" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B212" s="7">
         <v>95</v>
@@ -7970,15 +7974,15 @@
         <v>3</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I212" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="12.75" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B213" s="7">
         <v>95</v>
@@ -7991,15 +7995,15 @@
         <v>3</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" ht="12.75" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B214" s="7">
         <v>95</v>
@@ -8009,12 +8013,12 @@
         <v>43782</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="12.75" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B215" s="7">
         <v>95</v>
@@ -8024,12 +8028,12 @@
         <v>43806</v>
       </c>
       <c r="G215" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="12.75" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B216" s="7">
         <v>95</v>
@@ -8039,12 +8043,12 @@
         <v>43845</v>
       </c>
       <c r="G216" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="12.75" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B217" s="7">
         <v>96.5</v>
@@ -8059,10 +8063,10 @@
         <v>22</v>
       </c>
       <c r="I217" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="12.75" customHeight="1">
       <c r="A218" s="1" t="s">
         <v>66</v>
       </c>
@@ -8085,12 +8089,12 @@
         <v>63</v>
       </c>
       <c r="J218" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="12.75" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B219" s="7">
         <v>100</v>
@@ -8103,15 +8107,15 @@
         <v>62</v>
       </c>
       <c r="I219" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J219" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" ht="12.75" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B220" s="7">
         <v>100</v>
@@ -8121,12 +8125,12 @@
         <v>40772</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="12.75" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B221" s="7">
         <v>100</v>
@@ -8136,15 +8140,15 @@
         <v>40867</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" ht="12.75" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B222" s="7">
         <v>100</v>
@@ -8154,21 +8158,21 @@
         <v>41112</v>
       </c>
       <c r="G222" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="I222" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="J222" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="K222" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A223" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="I222" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="J222" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="K222" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="B223" s="7">
         <v>100</v>
@@ -8177,15 +8181,15 @@
         <v>41809</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="12.75" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B224" s="7">
         <v>100</v>
@@ -8195,16 +8199,16 @@
         <v>41886</v>
       </c>
       <c r="G224" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H224" s="20"/>
       <c r="I224" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" ht="12.75" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B225" s="7">
         <v>100</v>
@@ -8215,15 +8219,15 @@
         <v>41886</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I225" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" ht="12.75" customHeight="1">
       <c r="A226" s="17" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B226" s="7">
         <v>100</v>
@@ -8234,12 +8238,12 @@
         <v>43111</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" ht="12.75" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B227" s="7">
         <v>100</v>
@@ -8249,15 +8253,15 @@
         <v>43271</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" ht="12.75" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B228" s="7">
         <v>100</v>
@@ -8267,13 +8271,13 @@
         <v>43372</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" ht="12.75" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B229" s="7">
         <v>100</v>
@@ -8286,12 +8290,12 @@
         <v>5</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" ht="12.75" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B230" s="7">
         <v>100</v>
@@ -8301,21 +8305,21 @@
         <v>43437</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J230" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K230" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" ht="12.75" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B231" s="7">
         <v>100</v>
@@ -8324,21 +8328,21 @@
         <v>43437</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J231" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K231" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" ht="12.75" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B232" s="7">
         <v>100</v>
@@ -8347,21 +8351,21 @@
         <v>43437</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J232" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K232" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" ht="12.75" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B233" s="7">
         <v>100</v>
@@ -8370,15 +8374,15 @@
         <v>43441</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I233" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" ht="12.75" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B234" s="12">
         <v>100</v>
@@ -8392,22 +8396,22 @@
         <v>5</v>
       </c>
       <c r="G234" s="13" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H234" s="13"/>
       <c r="I234" s="13" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J234" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K234" s="4"/>
       <c r="L234" s="4"/>
       <c r="M234" s="4"/>
     </row>
-    <row r="235" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" ht="12.75" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B235" s="7">
         <v>100</v>
@@ -8416,15 +8420,15 @@
         <v>43643</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" ht="12.75" customHeight="1">
       <c r="A236" s="17" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B236" s="7">
         <v>100</v>
@@ -8434,12 +8438,12 @@
         <v>43810</v>
       </c>
       <c r="G236" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" ht="12.75" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B237" s="7">
         <v>100</v>
@@ -8448,12 +8452,12 @@
         <v>43995</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" ht="12.75" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B238" s="7">
         <v>100</v>
@@ -8462,12 +8466,12 @@
         <v>43995</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="12.75" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B239" s="7">
         <v>100</v>
@@ -8476,12 +8480,12 @@
         <v>43995</v>
       </c>
       <c r="G239" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A240" s="1" t="s">
         <v>528</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="B240" s="7">
         <v>100</v>
@@ -8490,12 +8494,12 @@
         <v>43999</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="241" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="241" spans="1:256" ht="12.75" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B241" s="7">
         <v>100</v>
@@ -8504,12 +8508,12 @@
         <v>44005</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="242" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="242" spans="1:256" ht="12.75" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B242" s="7">
         <v>100</v>
@@ -8519,13 +8523,13 @@
         <v>44074</v>
       </c>
       <c r="G242" s="13" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H242" s="13"/>
     </row>
-    <row r="243" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:256" ht="12.75" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B243" s="7">
         <v>100.8</v>
@@ -8535,12 +8539,12 @@
         <v>39757</v>
       </c>
       <c r="G243" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="244" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="244" spans="1:256" ht="12.75" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B244" s="7">
         <v>103</v>
@@ -8553,12 +8557,12 @@
         <v>5</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="245" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="245" spans="1:256" ht="12.75" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B245" s="7">
         <v>110</v>
@@ -8567,15 +8571,15 @@
         <v>42543</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I245" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="246" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="246" spans="1:256" ht="12.75" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B246" s="7">
         <v>110</v>
@@ -8584,15 +8588,15 @@
         <v>42629</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I246" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:256" ht="12.75" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B247" s="7">
         <v>110</v>
@@ -8601,15 +8605,15 @@
         <v>42629</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I247" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:256" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:256" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B248" s="7">
         <v>110</v>
@@ -8621,7 +8625,7 @@
       </c>
       <c r="F248" s="5"/>
       <c r="G248" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H248" s="6"/>
       <c r="I248" s="6" t="s">
@@ -8657,9 +8661,9 @@
       <c r="IU248"/>
       <c r="IV248"/>
     </row>
-    <row r="249" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:256" ht="12.75" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B249" s="7">
         <v>110</v>
@@ -8668,15 +8672,15 @@
         <v>42629</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I249" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:256" ht="12.75" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B250" s="7">
         <v>110</v>
@@ -8685,12 +8689,12 @@
         <v>43039</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="251" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="251" spans="1:256" ht="12.75" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B251" s="7">
         <v>110</v>
@@ -8699,12 +8703,12 @@
         <v>43039</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="252" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="252" spans="1:256" ht="12.75" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B252" s="7">
         <v>110</v>
@@ -8713,12 +8717,12 @@
         <v>43039</v>
       </c>
       <c r="G252" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="253" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A253" s="1" t="s">
         <v>545</v>
-      </c>
-    </row>
-    <row r="253" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="B253" s="7">
         <v>110</v>
@@ -8727,12 +8731,12 @@
         <v>43039</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="254" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="254" spans="1:256" ht="12.75" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B254" s="7">
         <v>110</v>
@@ -8741,12 +8745,12 @@
         <v>43039</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="255" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="255" spans="1:256" ht="12.75" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B255" s="7">
         <v>110</v>
@@ -8755,12 +8759,12 @@
         <v>43039</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="256" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="256" spans="1:256" ht="12.75" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B256" s="7">
         <v>110</v>
@@ -8769,12 +8773,12 @@
         <v>44061</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="257" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" ht="12.75" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B257" s="7">
         <v>110</v>
@@ -8783,12 +8787,12 @@
         <v>44061</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="258" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" ht="12.75" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B258" s="7">
         <v>110</v>
@@ -8797,12 +8801,12 @@
         <v>44061</v>
       </c>
       <c r="G258" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" ht="12.75" customHeight="1">
+      <c r="A259" s="1" t="s">
         <v>552</v>
-      </c>
-    </row>
-    <row r="259" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="B259" s="7">
         <v>112</v>
@@ -8812,15 +8816,15 @@
         <v>44076</v>
       </c>
       <c r="G259" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H259" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="260" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" ht="12.75" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B260" s="7">
         <v>113</v>
@@ -8833,15 +8837,15 @@
         <v>3</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I260" s="6" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="261" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" ht="12.75" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B261" s="7">
         <v>115</v>
@@ -8854,18 +8858,18 @@
         <v>5</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I261" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="J261" s="6" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="262" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" ht="12.75" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B262" s="7">
         <v>115</v>
@@ -8878,18 +8882,18 @@
         <v>42543</v>
       </c>
       <c r="G262" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I262" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J262" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I262" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J262" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="263" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:18" ht="12.75" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B263" s="7">
         <v>117</v>
@@ -8900,15 +8904,15 @@
         <v>39855</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I263" s="6" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="264" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" ht="12.75" customHeight="1">
       <c r="A264" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B264" s="7">
         <v>117</v>
@@ -8919,15 +8923,15 @@
         <v>39855</v>
       </c>
       <c r="G264" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="I264" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" ht="12.75" customHeight="1">
+      <c r="A265" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="I264" s="6" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="265" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="B265" s="7">
         <v>117</v>
@@ -8937,15 +8941,15 @@
         <v>40894</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="K265" s="6" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="266" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" ht="12.75" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B266" s="7">
         <v>117</v>
@@ -8958,12 +8962,12 @@
         <v>5</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="267" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" ht="12.75" customHeight="1">
       <c r="A267" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B267" s="7">
         <v>120</v>
@@ -8972,15 +8976,15 @@
         <v>40894</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I267" s="6" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="268" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" ht="12.75" customHeight="1">
       <c r="A268" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B268" s="7">
         <v>120</v>
@@ -8989,15 +8993,15 @@
         <v>40894</v>
       </c>
       <c r="G268" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="I268" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" ht="12" customHeight="1">
+      <c r="A269" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="I268" s="6" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="269" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="B269" s="7">
         <v>120</v>
@@ -9006,15 +9010,15 @@
         <v>40894</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I269" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" ht="12.75" customHeight="1">
+      <c r="A270" s="1" t="s">
         <v>573</v>
-      </c>
-    </row>
-    <row r="270" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="1" t="s">
-        <v>576</v>
       </c>
       <c r="B270" s="7">
         <v>120</v>
@@ -9023,10 +9027,10 @@
         <v>40894</v>
       </c>
       <c r="G270" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I270" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="N270" s="3"/>
       <c r="O270" s="3"/>
@@ -9034,9 +9038,9 @@
       <c r="Q270" s="3"/>
       <c r="R270" s="3"/>
     </row>
-    <row r="271" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18" ht="12.75" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B271" s="7">
         <v>120</v>
@@ -9051,21 +9055,21 @@
         <v>1</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I271" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J271" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K271" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" ht="12.75" customHeight="1">
       <c r="A272" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B272" s="7">
         <v>120</v>
@@ -9078,15 +9082,15 @@
         <v>2</v>
       </c>
       <c r="G272" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I272" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" ht="12.75" customHeight="1">
       <c r="A273" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B273" s="7">
         <v>120</v>
@@ -9096,13 +9100,13 @@
         <v>43111</v>
       </c>
       <c r="G273" s="15" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H273" s="15"/>
     </row>
-    <row r="274" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" ht="12.75" customHeight="1">
       <c r="A274" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B274" s="7">
         <v>123</v>
@@ -9111,15 +9115,15 @@
         <v>42354</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I274" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" ht="12.75" customHeight="1">
       <c r="A275" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B275" s="7">
         <v>126</v>
@@ -9137,21 +9141,21 @@
         <v>2</v>
       </c>
       <c r="G275" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I275" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J275" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K275" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I275" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J275" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K275" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:11" ht="12.75" customHeight="1">
       <c r="A276" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B276" s="7">
         <v>126</v>
@@ -9169,21 +9173,21 @@
         <v>2</v>
       </c>
       <c r="G276" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I276" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J276" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K276" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" ht="12.75" customHeight="1">
       <c r="A277" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B277" s="7">
         <v>126</v>
@@ -9201,21 +9205,21 @@
         <v>2</v>
       </c>
       <c r="G277" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I277" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="J277" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K277" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I277" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="J277" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K277" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:11" ht="12.75" customHeight="1">
       <c r="A278" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B278" s="7">
         <v>130</v>
@@ -9230,15 +9234,15 @@
         <v>2</v>
       </c>
       <c r="G278" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J278" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" ht="12.75" customHeight="1">
       <c r="A279" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B279" s="7">
         <v>130</v>
@@ -9251,15 +9255,15 @@
         <v>5</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="I279" s="6" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" ht="12.75" customHeight="1">
       <c r="A280" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B280" s="7">
         <v>130</v>
@@ -9269,15 +9273,15 @@
         <v>42266</v>
       </c>
       <c r="G280" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I280" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" ht="12.75" customHeight="1">
       <c r="A281" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B281" s="7">
         <v>130</v>
@@ -9287,28 +9291,28 @@
         <v>42543</v>
       </c>
       <c r="G281" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I281" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J281" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" ht="12.75" customHeight="1">
       <c r="I282" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" ht="12.75" customHeight="1">
       <c r="I283" s="6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" ht="12.75" customHeight="1">
       <c r="I284" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -9345,7 +9349,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -9360,7 +9364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -9511,27 +9515,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{136BBE8E-CE2E-42AE-BE29-DAEEFA70A902}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{136BBE8E-CE2E-42AE-BE29-DAEEFA70A902}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ED10F32-6A1F-449D-99BA-B0F5A5E22406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6f928cc3-e05b-4d2c-a9a8-dc2bbe76db2d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ED10F32-6A1F-449D-99BA-B0F5A5E22406}"/>
 </file>